--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 7 Guess Rule 8.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 7 Guess Rule 8.xlsx_with_dialog_acts.xlsx
@@ -851,12 +851,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1307,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1383,12 +1383,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1421,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1687,12 +1687,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1877,12 +1877,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2295,12 +2295,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2409,12 +2409,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2743,12 +2743,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3267,12 +3267,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3571,12 +3571,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3723,12 +3723,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3761,12 +3761,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3799,12 +3799,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
